--- a/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
+++ b/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhu\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C90BB14-BC13-4929-AFF2-24F654E4CAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABBA95-EB06-438D-96CE-672D7CCF4715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>date\level</t>
   </si>
   <si>
     <t>heap</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>ssrs</t>
   </si>
 </sst>
 </file>
@@ -376,15 +384,15 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +419,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44650</v>
       </c>
@@ -434,7 +442,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44651</v>
       </c>
@@ -460,7 +468,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44652</v>
       </c>
@@ -483,7 +491,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44653</v>
       </c>
@@ -494,7 +502,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44654</v>
       </c>
@@ -526,7 +534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44655</v>
       </c>
@@ -543,7 +551,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44656</v>
       </c>
@@ -563,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44657</v>
       </c>
@@ -586,7 +594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44658</v>
       </c>
@@ -612,147 +620,162 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44659</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>971</v>
+      </c>
+      <c r="C11">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44660</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44661</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44662</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44663</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44665</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44666</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44667</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44668</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44669</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44670</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44671</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44672</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44673</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44674</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44675</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44676</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44677</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44678</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44679</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44680</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44681</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44682</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44683</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44684</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44685</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44686</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44687</v>
       </c>

--- a/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
+++ b/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhu\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CABBA95-EB06-438D-96CE-672D7CCF4715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909143E1-FAFA-4607-B031-3A9B6B8A5E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>date\level</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>ssrs</t>
+  </si>
+  <si>
+    <t>sql interview</t>
+  </si>
+  <si>
+    <t>998 不懂</t>
   </si>
 </sst>
 </file>
@@ -383,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,15 +655,27 @@
       <c r="A13" s="1">
         <v>44661</v>
       </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44662</v>
       </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44663</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1022</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">

--- a/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
+++ b/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhu\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909143E1-FAFA-4607-B031-3A9B6B8A5E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3663A021-75FB-4292-A578-05A3D3994456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>date\level</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>998 不懂</t>
+  </si>
+  <si>
+    <t>2151/306/2029</t>
   </si>
 </sst>
 </file>
@@ -390,7 +394,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,6 +686,18 @@
       <c r="A16" s="1">
         <v>44664</v>
       </c>
+      <c r="B16">
+        <v>126</v>
+      </c>
+      <c r="C16">
+        <v>1022</v>
+      </c>
+      <c r="D16">
+        <v>1026</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">

--- a/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
+++ b/pythonProject1/LeetcodeDaylog (version 1) (version 1).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhu\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3663A021-75FB-4292-A578-05A3D3994456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777DB1C6-11DA-460B-86A0-4726CF8FA7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>date\level</t>
   </si>
@@ -50,6 +49,24 @@
   </si>
   <si>
     <t>2151/306/2029</t>
+  </si>
+  <si>
+    <t>周赛</t>
+  </si>
+  <si>
+    <t>BOA  OA</t>
+  </si>
+  <si>
+    <t>C1 OA</t>
+  </si>
+  <si>
+    <t>报税</t>
+  </si>
+  <si>
+    <t>九章</t>
+  </si>
+  <si>
+    <t>interview</t>
   </si>
 </sst>
 </file>
@@ -393,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,82 +716,142 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44665</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44666</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44667</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44668</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44669</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44670</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>101</v>
+      </c>
+      <c r="G22">
+        <v>108</v>
+      </c>
+      <c r="H22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44671</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>125</v>
+      </c>
+      <c r="C23">
+        <v>136</v>
+      </c>
+      <c r="D23">
+        <v>155</v>
+      </c>
+      <c r="E23">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44672</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44673</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44674</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44675</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44676</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44677</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44678</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44679</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44680</v>
       </c>
